--- a/analysis/campaigns-analysis.xlsx
+++ b/analysis/campaigns-analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3e6a90a7d0137c2/Desktop/ds/bcgx-campaigns-performance-analysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{A548AC19-C501-46E1-915C-B6A7CF23C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB6B847-522B-4D18-A0CA-8890FF5B35AC}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="13_ncr:1_{A548AC19-C501-46E1-915C-B6A7CF23C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE6849C-6F6E-4DDE-A9CF-A30FC31C0888}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{0753742A-CAC4-4A7D-BFFA-893AA9730FA6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="5" activeTab="5" xr2:uid="{0753742A-CAC4-4A7D-BFFA-893AA9730FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="total_sales_by_campaign" sheetId="4" r:id="rId4"/>
     <sheet name="sales_by_customer_and_campaign" sheetId="12" r:id="rId5"/>
     <sheet name="channel_and_campaigns_performan" sheetId="13" r:id="rId6"/>
+    <sheet name="users_time" sheetId="14" r:id="rId7"/>
+    <sheet name="time_interactions" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Customer_Type">#N/A</definedName>
@@ -26,13 +28,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="525">
   <si>
     <t>Interaction ID</t>
   </si>
@@ -1623,6 +1625,12 @@
   </si>
   <si>
     <t>sales_by customers_campaigns</t>
+  </si>
+  <si>
+    <t>Sum of Time on Site (seconds)</t>
+  </si>
+  <si>
+    <t>Count of Converted (1=yes, 0=no)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1953,8 +1961,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2069,8 +2083,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2113,8 +2145,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2123,9 +2156,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2165,6 +2201,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2200,10 +2237,85 @@
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Overall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -2212,10 +2324,21 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2248,8 +2371,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2260,7 +2384,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -2269,10 +2393,21 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2305,8 +2440,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2317,7 +2453,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -2326,10 +2462,21 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
-          <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2362,65 +2509,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2431,48 +2522,9 @@
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2498,9 +2550,66 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>sales_by_campaign_and_channel!$A$5:$A$7</c:f>
@@ -2558,9 +2667,66 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>sales_by_campaign_and_channel!$A$5:$A$7</c:f>
@@ -2618,9 +2784,66 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>sales_by_campaign_and_channel!$A$5:$A$7</c:f>
@@ -2657,19 +2880,19 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="1639909983"/>
         <c:axId val="1639906623"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1639909983"/>
         <c:scaling>
@@ -2683,8 +2906,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2909,13 +3138,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Channel</a:t>
+              <a:t>Channel performance</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> performance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2964,7 +3188,8 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2997,16 +3222,59 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3041,6 +3309,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A61D-4017-B701-CD599D8262AF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3056,6 +3329,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A61D-4017-B701-CD599D8262AF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3071,7 +3349,68 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A61D-4017-B701-CD599D8262AF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>total_sales_by_channel!$A$4:$A$7</c:f>
@@ -3114,11 +3453,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3312,7 +3652,8 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3345,16 +3686,45 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3389,6 +3759,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-83DF-4781-89A6-F1773BBF3011}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3404,7 +3779,68 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-83DF-4781-89A6-F1773BBF3011}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>total_sales_by_campaign!$A$4:$A$6</c:f>
@@ -3441,11 +3877,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3582,7 +4019,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3615,8 +4064,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3638,7 +4088,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3671,8 +4133,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3713,6 +4176,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>sales_by_customer_and_campaign!$A$5:$A$7</c:f>
@@ -3772,6 +4293,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>sales_by_customer_and_campaign!$A$5:$A$7</c:f>
@@ -3808,8 +4387,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4044,6 +4624,61 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>New customers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -4058,7 +4693,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4091,8 +4738,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4114,7 +4762,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4147,8 +4807,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4189,6 +4850,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>channel_and_campaigns_performan!$A$5:$A$8</c:f>
@@ -4254,6 +4973,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>channel_and_campaigns_performan!$A$5:$A$8</c:f>
@@ -4296,8 +5073,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4412,6 +5190,1336 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="517776367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Users</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>users_time!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Email</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>users_time!$A$14:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Existing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>users_time!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.48152820620565184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47544898345159842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDD0-4A55-B0A5-D7CFB8D13FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>users_time!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>users_time!$A$14:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Existing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>users_time!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2647845021057959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25626168554568757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDD0-4A55-B0A5-D7CFB8D13FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>users_time!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Web Banner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>users_time!$A$14:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Existing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>users_time!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25368729168855225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26828933100271407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDD0-4A55-B0A5-D7CFB8D13FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="912975616"/>
+        <c:axId val="912977056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="912975616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912977056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="912977056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912975616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[campaigns-analysis.xlsx]time_interactions!PivotTable1</c:name>
+    <c:fmtId val="28"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Interaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time non-converted</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time_interactions!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Time on Site (seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>time_interactions!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Email</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Banner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time_interactions!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3762.0800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3733.6600000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3576.4100000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2631-456B-ACAE-009170991ED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time_interactions!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count of Converted (1=yes, 0=no)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>time_interactions!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Email</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Banner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time_interactions!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2631-456B-ACAE-009170991ED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="912933376"/>
+        <c:axId val="912945376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="912933376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912945376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="912945376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912933376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4714,8 +6822,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4738,6 +6926,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4908,23 +7107,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5029,8 +7227,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5162,20 +7360,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7254,6 +9451,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7543,12 +10750,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>14274</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Customer Type 1">
@@ -7571,7 +10778,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7615,6 +10822,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F22A265-D989-63D8-50E5-7E617C9785F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9B9226-AA44-65B7-3AD2-E8DCF607F0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -7648,7 +10937,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Converted (1=yes, 0=no)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
+        <n v="0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Time on Site (seconds)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.2" maxValue="175.49"/>
@@ -7672,7 +10964,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="88.14"/>
     <n v="70.989999999999995"/>
   </r>
@@ -7681,7 +10973,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.7"/>
     <n v="0"/>
   </r>
@@ -7690,7 +10982,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.66"/>
     <n v="59.62"/>
   </r>
@@ -7699,7 +10991,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="121.61"/>
     <n v="77.36"/>
   </r>
@@ -7708,7 +11000,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="59.3"/>
     <n v="0"/>
   </r>
@@ -7717,7 +11009,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="115.63"/>
     <n v="73.84"/>
   </r>
@@ -7726,7 +11018,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.4"/>
     <n v="54.24"/>
   </r>
@@ -7735,7 +11027,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.61"/>
     <n v="0"/>
   </r>
@@ -7744,7 +11036,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="120.11"/>
     <n v="69.16"/>
   </r>
@@ -7753,7 +11045,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="62.65"/>
     <n v="69.489999999999995"/>
   </r>
@@ -7762,7 +11054,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.98"/>
     <n v="0"/>
   </r>
@@ -7771,7 +11063,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.02"/>
     <n v="0"/>
   </r>
@@ -7780,7 +11072,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.33"/>
     <n v="72.08"/>
   </r>
@@ -7789,7 +11081,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.12"/>
     <n v="0"/>
   </r>
@@ -7798,7 +11090,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.86"/>
     <n v="0"/>
   </r>
@@ -7807,7 +11099,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="131.19999999999999"/>
     <n v="72.760000000000005"/>
   </r>
@@ -7816,7 +11108,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="75.95"/>
     <n v="56.49"/>
   </r>
@@ -7825,7 +11117,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="66.02"/>
     <n v="42.19"/>
   </r>
@@ -7834,7 +11126,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.91"/>
     <n v="0"/>
   </r>
@@ -7843,7 +11135,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="107.81"/>
     <n v="72.75"/>
   </r>
@@ -7852,7 +11144,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.71"/>
     <n v="0"/>
   </r>
@@ -7861,7 +11153,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.549999999999997"/>
     <n v="0"/>
   </r>
@@ -7870,7 +11162,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.130000000000003"/>
     <n v="0"/>
   </r>
@@ -7879,7 +11171,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="106.81"/>
     <n v="75.27"/>
   </r>
@@ -7888,7 +11180,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.87"/>
     <n v="55.82"/>
   </r>
@@ -7897,7 +11189,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="63.35"/>
     <n v="31.08"/>
   </r>
@@ -7906,7 +11198,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="57.49"/>
     <n v="45.53"/>
   </r>
@@ -7915,7 +11207,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.85"/>
     <n v="0"/>
   </r>
@@ -7924,7 +11216,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.65"/>
     <n v="0"/>
   </r>
@@ -7933,7 +11225,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="155.88999999999999"/>
     <n v="39.03"/>
   </r>
@@ -7942,7 +11234,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.47"/>
     <n v="0"/>
   </r>
@@ -7951,7 +11243,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="167.17"/>
     <n v="59.68"/>
   </r>
@@ -7960,7 +11252,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="96.93"/>
     <n v="65.03"/>
   </r>
@@ -7969,7 +11261,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.57"/>
     <n v="0"/>
   </r>
@@ -7978,7 +11270,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="55.18"/>
     <n v="0"/>
   </r>
@@ -7987,7 +11279,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="153.33000000000001"/>
     <n v="40.299999999999997"/>
   </r>
@@ -7996,7 +11288,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.340000000000003"/>
     <n v="0"/>
   </r>
@@ -8005,7 +11297,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="28.86"/>
     <n v="0"/>
   </r>
@@ -8014,7 +11306,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.76"/>
     <n v="82.17"/>
   </r>
@@ -8023,7 +11315,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.369999999999997"/>
     <n v="0"/>
   </r>
@@ -8032,7 +11324,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="59.1"/>
     <n v="0"/>
   </r>
@@ -8041,7 +11333,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="78.67"/>
     <n v="51.22"/>
   </r>
@@ -8050,7 +11342,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.31"/>
     <n v="74.069999999999993"/>
   </r>
@@ -8059,7 +11351,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="78.8"/>
     <n v="45.8"/>
   </r>
@@ -8068,7 +11360,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="68.53"/>
     <n v="41.07"/>
   </r>
@@ -8077,7 +11369,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="79.05"/>
     <n v="46.73"/>
   </r>
@@ -8086,7 +11378,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.15"/>
     <n v="0"/>
   </r>
@@ -8095,7 +11387,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="31.59"/>
     <n v="0"/>
   </r>
@@ -8104,7 +11396,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="77.31"/>
     <n v="43.5"/>
   </r>
@@ -8113,7 +11405,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="31"/>
     <n v="0"/>
   </r>
@@ -8122,7 +11414,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.59"/>
     <n v="64.31"/>
   </r>
@@ -8131,7 +11423,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="5.2"/>
     <n v="0"/>
   </r>
@@ -8140,7 +11432,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.65"/>
     <n v="0"/>
   </r>
@@ -8149,7 +11441,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.41"/>
     <n v="0"/>
   </r>
@@ -8158,7 +11450,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.37"/>
     <n v="0"/>
   </r>
@@ -8167,7 +11459,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.58"/>
     <n v="0"/>
   </r>
@@ -8176,7 +11468,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="23.95"/>
     <n v="0"/>
   </r>
@@ -8185,7 +11477,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.27"/>
     <n v="0"/>
   </r>
@@ -8194,7 +11486,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.549999999999997"/>
     <n v="0"/>
   </r>
@@ -8203,7 +11495,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.05"/>
     <n v="0"/>
   </r>
@@ -8212,7 +11504,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.08"/>
     <n v="55.55"/>
   </r>
@@ -8221,7 +11513,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="104.03"/>
     <n v="68.930000000000007"/>
   </r>
@@ -8230,7 +11522,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.97"/>
     <n v="72.83"/>
   </r>
@@ -8239,7 +11531,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.83"/>
     <n v="0"/>
   </r>
@@ -8248,7 +11540,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="117.59"/>
     <n v="88.78"/>
   </r>
@@ -8257,7 +11549,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.12"/>
     <n v="0"/>
   </r>
@@ -8266,7 +11558,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.83"/>
     <n v="0"/>
   </r>
@@ -8275,7 +11567,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.06"/>
     <n v="0"/>
   </r>
@@ -8284,7 +11576,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="95.7"/>
     <n v="48.67"/>
   </r>
@@ -8293,7 +11585,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.74"/>
     <n v="0"/>
   </r>
@@ -8302,7 +11594,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54.98"/>
     <n v="0"/>
   </r>
@@ -8311,7 +11603,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.69"/>
     <n v="0"/>
   </r>
@@ -8320,7 +11612,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="93.83"/>
     <n v="43.99"/>
   </r>
@@ -8329,7 +11621,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.68"/>
     <n v="72.489999999999995"/>
   </r>
@@ -8338,7 +11630,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="82.56"/>
     <n v="44.89"/>
   </r>
@@ -8347,7 +11639,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="124.93"/>
     <n v="55.33"/>
   </r>
@@ -8356,7 +11648,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="76.33"/>
     <n v="37.130000000000003"/>
   </r>
@@ -8365,7 +11657,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="50.24"/>
     <n v="0"/>
   </r>
@@ -8374,7 +11666,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.21"/>
     <n v="0"/>
   </r>
@@ -8383,7 +11675,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.42"/>
     <n v="0"/>
   </r>
@@ -8392,7 +11684,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="77.14"/>
     <n v="48.3"/>
   </r>
@@ -8401,7 +11693,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="126.21"/>
     <n v="68.03"/>
   </r>
@@ -8410,7 +11702,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="130.26"/>
     <n v="58.66"/>
   </r>
@@ -8419,7 +11711,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="30.2"/>
     <n v="0"/>
   </r>
@@ -8428,7 +11720,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.82"/>
     <n v="0"/>
   </r>
@@ -8437,7 +11729,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.92"/>
     <n v="0"/>
   </r>
@@ -8446,7 +11738,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="133.86000000000001"/>
     <n v="67.599999999999994"/>
   </r>
@@ -8455,7 +11747,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.61"/>
     <n v="45.01"/>
   </r>
@@ -8464,7 +11756,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.74"/>
     <n v="74.180000000000007"/>
   </r>
@@ -8473,7 +11765,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="123.08"/>
     <n v="57.25"/>
   </r>
@@ -8482,7 +11774,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54.26"/>
     <n v="0"/>
   </r>
@@ -8491,7 +11783,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="128.96"/>
     <n v="63.23"/>
   </r>
@@ -8500,7 +11792,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="23.16"/>
     <n v="0"/>
   </r>
@@ -8509,7 +11801,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="80.66"/>
     <n v="57.24"/>
   </r>
@@ -8518,7 +11810,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.29"/>
     <n v="0"/>
   </r>
@@ -8527,7 +11819,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.34"/>
     <n v="0"/>
   </r>
@@ -8536,7 +11828,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="109.6"/>
     <n v="68.67"/>
   </r>
@@ -8545,7 +11837,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.520000000000003"/>
     <n v="0"/>
   </r>
@@ -8554,7 +11846,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.13"/>
     <n v="50.08"/>
   </r>
@@ -8563,7 +11855,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.54"/>
     <n v="0"/>
   </r>
@@ -8572,7 +11864,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.17"/>
     <n v="0"/>
   </r>
@@ -8581,7 +11873,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="96.92"/>
     <n v="38.46"/>
   </r>
@@ -8590,7 +11882,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="122.86"/>
     <n v="77.849999999999994"/>
   </r>
@@ -8599,7 +11891,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.479999999999997"/>
     <n v="0"/>
   </r>
@@ -8608,7 +11900,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.19"/>
     <n v="58.47"/>
   </r>
@@ -8617,7 +11909,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="60.19"/>
     <n v="0"/>
   </r>
@@ -8626,7 +11918,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="94.11"/>
     <n v="49.11"/>
   </r>
@@ -8635,7 +11927,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.45"/>
     <n v="0"/>
   </r>
@@ -8644,7 +11936,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.82"/>
     <n v="44.63"/>
   </r>
@@ -8653,7 +11945,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="88.67"/>
     <n v="80.83"/>
   </r>
@@ -8662,7 +11954,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.3"/>
     <n v="0"/>
   </r>
@@ -8671,7 +11963,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.950000000000003"/>
     <n v="0"/>
   </r>
@@ -8680,7 +11972,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.119999999999997"/>
     <n v="0"/>
   </r>
@@ -8689,7 +11981,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="121.3"/>
     <n v="66.260000000000005"/>
   </r>
@@ -8698,7 +11990,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.630000000000003"/>
     <n v="0"/>
   </r>
@@ -8707,7 +11999,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.71"/>
     <n v="0"/>
   </r>
@@ -8716,7 +12008,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.93"/>
     <n v="0"/>
   </r>
@@ -8725,7 +12017,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="70.05"/>
     <n v="55.36"/>
   </r>
@@ -8734,7 +12026,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="175.49"/>
     <n v="71.739999999999995"/>
   </r>
@@ -8743,7 +12035,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="142.15"/>
     <n v="73.260000000000005"/>
   </r>
@@ -8752,7 +12044,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="114.35"/>
     <n v="68.959999999999994"/>
   </r>
@@ -8761,7 +12053,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.450000000000003"/>
     <n v="0"/>
   </r>
@@ -8770,7 +12062,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="64.209999999999994"/>
     <n v="0"/>
   </r>
@@ -8779,7 +12071,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.5"/>
     <n v="0"/>
   </r>
@@ -8788,7 +12080,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="31.91"/>
     <n v="0"/>
   </r>
@@ -8797,7 +12089,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="142.02000000000001"/>
     <n v="64.14"/>
   </r>
@@ -8806,7 +12098,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.77"/>
     <n v="0"/>
   </r>
@@ -8815,7 +12107,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.950000000000003"/>
     <n v="0"/>
   </r>
@@ -8824,7 +12116,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="83.41"/>
     <n v="48.97"/>
   </r>
@@ -8833,7 +12125,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="58.49"/>
     <n v="46.88"/>
   </r>
@@ -8842,7 +12134,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="26.75"/>
     <n v="0"/>
   </r>
@@ -8851,7 +12143,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="121.41"/>
     <n v="73.81"/>
   </r>
@@ -8860,7 +12152,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="101.32"/>
     <n v="72.89"/>
   </r>
@@ -8869,7 +12161,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.97"/>
     <n v="0"/>
   </r>
@@ -8878,7 +12170,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="79.180000000000007"/>
     <n v="69.010000000000005"/>
   </r>
@@ -8887,7 +12179,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.869999999999997"/>
     <n v="0"/>
   </r>
@@ -8896,7 +12188,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.26"/>
     <n v="75.37"/>
   </r>
@@ -8905,7 +12197,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="86.58"/>
     <n v="70.55"/>
   </r>
@@ -8914,7 +12206,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.95"/>
     <n v="0"/>
   </r>
@@ -8923,7 +12215,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="17.36"/>
     <n v="0"/>
   </r>
@@ -8932,7 +12224,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.51"/>
     <n v="0"/>
   </r>
@@ -8941,7 +12233,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="154.47999999999999"/>
     <n v="83.8"/>
   </r>
@@ -8950,7 +12242,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="159.19"/>
     <n v="44.3"/>
   </r>
@@ -8959,7 +12251,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="138.26"/>
     <n v="61.02"/>
   </r>
@@ -8968,7 +12260,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.69"/>
     <n v="0"/>
   </r>
@@ -8977,7 +12269,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.409999999999997"/>
     <n v="0"/>
   </r>
@@ -8986,7 +12278,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="108.83"/>
     <n v="56.74"/>
   </r>
@@ -8995,7 +12287,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="56.04"/>
     <n v="49.48"/>
   </r>
@@ -9004,7 +12296,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="64.64"/>
     <n v="59.54"/>
   </r>
@@ -9013,7 +12305,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="102.5"/>
     <n v="60.86"/>
   </r>
@@ -9022,7 +12314,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="18.12"/>
     <n v="0"/>
   </r>
@@ -9031,7 +12323,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="124.11"/>
     <n v="82.46"/>
   </r>
@@ -9040,7 +12332,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="113.99"/>
     <n v="59.23"/>
   </r>
@@ -9049,7 +12341,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.67"/>
     <n v="0"/>
   </r>
@@ -9058,7 +12350,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="92.33"/>
     <n v="71.680000000000007"/>
   </r>
@@ -9067,7 +12359,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54"/>
     <n v="0"/>
   </r>
@@ -9076,7 +12368,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="57.94"/>
     <n v="0"/>
   </r>
@@ -9085,7 +12377,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.09"/>
     <n v="0"/>
   </r>
@@ -9094,7 +12386,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="16.93"/>
     <n v="0"/>
   </r>
@@ -9103,7 +12395,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.44"/>
     <n v="0"/>
   </r>
@@ -9112,7 +12404,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.35"/>
     <n v="66.42"/>
   </r>
@@ -9121,7 +12413,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="107.05"/>
     <n v="56.78"/>
   </r>
@@ -9130,7 +12422,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="117.43"/>
     <n v="68.67"/>
   </r>
@@ -9139,7 +12431,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="107.4"/>
     <n v="67.89"/>
   </r>
@@ -9148,7 +12440,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="98.53"/>
     <n v="56.05"/>
   </r>
@@ -9157,7 +12449,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="90.84"/>
     <n v="68.13"/>
   </r>
@@ -9166,7 +12458,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="56.22"/>
     <n v="0"/>
   </r>
@@ -9175,7 +12467,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="63.5"/>
     <n v="0"/>
   </r>
@@ -9184,7 +12476,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.6"/>
     <n v="0"/>
   </r>
@@ -9193,7 +12485,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="126.06"/>
     <n v="73.16"/>
   </r>
@@ -9202,7 +12494,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.73"/>
     <n v="0"/>
   </r>
@@ -9211,7 +12503,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.31"/>
     <n v="53.5"/>
   </r>
@@ -9220,7 +12512,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.85"/>
     <n v="0"/>
   </r>
@@ -9229,7 +12521,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="138.32"/>
     <n v="71.81"/>
   </r>
@@ -9238,7 +12530,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.65"/>
     <n v="0"/>
   </r>
@@ -9247,7 +12539,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.82"/>
     <n v="0"/>
   </r>
@@ -9256,7 +12548,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="80.05"/>
     <n v="46.49"/>
   </r>
@@ -9265,7 +12557,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="68.650000000000006"/>
     <n v="64.28"/>
   </r>
@@ -9274,7 +12566,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.38"/>
     <n v="0"/>
   </r>
@@ -9283,7 +12575,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.76"/>
     <n v="0"/>
   </r>
@@ -9292,7 +12584,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.5"/>
     <n v="0"/>
   </r>
@@ -9301,7 +12593,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="100.5"/>
     <n v="57.78"/>
   </r>
@@ -9310,7 +12602,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.32"/>
     <n v="0"/>
   </r>
@@ -9319,7 +12611,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.92"/>
     <n v="0"/>
   </r>
@@ -9328,7 +12620,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.6"/>
     <n v="0"/>
   </r>
@@ -9337,7 +12629,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="133.61000000000001"/>
     <n v="65.319999999999993"/>
   </r>
@@ -9346,7 +12638,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="161.74"/>
     <n v="73.040000000000006"/>
   </r>
@@ -9355,7 +12647,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.84"/>
     <n v="0"/>
   </r>
@@ -9364,7 +12656,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="82.36"/>
     <n v="48.3"/>
   </r>
@@ -9373,7 +12665,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.049999999999997"/>
     <n v="0"/>
   </r>
@@ -9382,7 +12674,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.02"/>
     <n v="0"/>
   </r>
@@ -9391,7 +12683,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.18"/>
     <n v="0"/>
   </r>
@@ -9400,7 +12692,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.47"/>
     <n v="0"/>
   </r>
@@ -9409,7 +12701,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="89.08"/>
     <n v="72.569999999999993"/>
   </r>
@@ -9418,7 +12710,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="34.29"/>
     <n v="0"/>
   </r>
@@ -9427,7 +12719,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="92.75"/>
     <n v="45.8"/>
   </r>
@@ -9436,7 +12728,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.97"/>
     <n v="0"/>
   </r>
@@ -9445,7 +12737,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.31"/>
     <n v="0"/>
   </r>
@@ -9454,7 +12746,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="59.17"/>
     <n v="0"/>
   </r>
@@ -9463,7 +12755,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.31"/>
     <n v="0"/>
   </r>
@@ -9472,7 +12764,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.54"/>
     <n v="61.57"/>
   </r>
@@ -9481,7 +12773,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.21"/>
     <n v="0"/>
   </r>
@@ -9490,7 +12782,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.12"/>
     <n v="64.430000000000007"/>
   </r>
@@ -9499,7 +12791,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.95"/>
     <n v="62.92"/>
   </r>
@@ -9508,7 +12800,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="55.87"/>
     <n v="0"/>
   </r>
@@ -9517,7 +12809,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.51"/>
     <n v="82.32"/>
   </r>
@@ -9526,7 +12818,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="83.09"/>
     <n v="50.28"/>
   </r>
@@ -9535,7 +12827,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.08"/>
     <n v="0"/>
   </r>
@@ -9544,7 +12836,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="126.17"/>
     <n v="54.5"/>
   </r>
@@ -9553,7 +12845,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="72.75"/>
     <n v="88.65"/>
   </r>
@@ -9562,7 +12854,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.26"/>
     <n v="0"/>
   </r>
@@ -9571,7 +12863,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.38"/>
     <n v="0"/>
   </r>
@@ -9580,7 +12872,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="115.25"/>
     <n v="69.819999999999993"/>
   </r>
@@ -9589,7 +12881,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.66"/>
     <n v="0"/>
   </r>
@@ -9598,7 +12890,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.24"/>
     <n v="0"/>
   </r>
@@ -9607,7 +12899,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="140.12"/>
     <n v="75.11"/>
   </r>
@@ -9616,7 +12908,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="76.91"/>
     <n v="54.41"/>
   </r>
@@ -9625,7 +12917,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="64.23"/>
     <n v="47.46"/>
   </r>
@@ -9634,7 +12926,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.88"/>
     <n v="0"/>
   </r>
@@ -9643,7 +12935,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.47"/>
     <n v="67.28"/>
   </r>
@@ -9652,7 +12944,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.28"/>
     <n v="0"/>
   </r>
@@ -9661,7 +12953,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.270000000000003"/>
     <n v="0"/>
   </r>
@@ -9670,7 +12962,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.299999999999997"/>
     <n v="0"/>
   </r>
@@ -9679,7 +12971,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="105.73"/>
     <n v="76.5"/>
   </r>
@@ -9688,7 +12980,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="112.29"/>
     <n v="61.46"/>
   </r>
@@ -9697,7 +12989,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="66.430000000000007"/>
     <n v="37.229999999999997"/>
   </r>
@@ -9706,7 +12998,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="61.2"/>
     <n v="54.48"/>
   </r>
@@ -9715,7 +13007,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.58"/>
     <n v="0"/>
   </r>
@@ -9724,7 +13016,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.39"/>
     <n v="0"/>
   </r>
@@ -9733,7 +13025,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="163.58000000000001"/>
     <n v="39.57"/>
   </r>
@@ -9742,7 +13034,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.14"/>
     <n v="0"/>
   </r>
@@ -9751,7 +13043,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="154.66"/>
     <n v="64.569999999999993"/>
   </r>
@@ -9760,7 +13052,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="97.22"/>
     <n v="68.13"/>
   </r>
@@ -9769,7 +13061,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.5"/>
     <n v="0"/>
   </r>
@@ -9778,7 +13070,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.68"/>
     <n v="0"/>
   </r>
@@ -9787,7 +13079,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="168.48"/>
     <n v="42.01"/>
   </r>
@@ -9796,7 +13088,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="29.66"/>
     <n v="0"/>
   </r>
@@ -9805,7 +13097,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.299999999999997"/>
     <n v="0"/>
   </r>
@@ -9814,7 +13106,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="90.89"/>
     <n v="87.09"/>
   </r>
@@ -9823,7 +13115,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.619999999999997"/>
     <n v="0"/>
   </r>
@@ -9832,7 +13124,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54.74"/>
     <n v="0"/>
   </r>
@@ -9841,7 +13133,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="77.55"/>
     <n v="50.35"/>
   </r>
@@ -9850,7 +13142,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="122"/>
     <n v="65.95"/>
   </r>
@@ -9859,7 +13151,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="83.46"/>
     <n v="40.130000000000003"/>
   </r>
@@ -9868,7 +13160,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="69.56"/>
     <n v="57.38"/>
   </r>
@@ -9877,7 +13169,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="80.63"/>
     <n v="47.09"/>
   </r>
@@ -9886,7 +13178,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.119999999999997"/>
     <n v="0"/>
   </r>
@@ -9895,7 +13187,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="29.02"/>
     <n v="0"/>
   </r>
@@ -9904,7 +13196,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="82.71"/>
     <n v="39.380000000000003"/>
   </r>
@@ -9913,7 +13205,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="34.69"/>
     <n v="0"/>
   </r>
@@ -9922,7 +13214,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="91.82"/>
     <n v="57.87"/>
   </r>
@@ -9931,7 +13223,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="5.54"/>
     <n v="0"/>
   </r>
@@ -9940,7 +13232,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.24"/>
     <n v="0"/>
   </r>
@@ -9949,7 +13241,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.37"/>
     <n v="0"/>
   </r>
@@ -9958,7 +13250,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.51"/>
     <n v="0"/>
   </r>
@@ -9967,7 +13259,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.18"/>
     <n v="0"/>
   </r>
@@ -9976,7 +13268,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="26.58"/>
     <n v="0"/>
   </r>
@@ -9985,7 +13277,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.34"/>
     <n v="0"/>
   </r>
@@ -9994,7 +13286,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.729999999999997"/>
     <n v="0"/>
   </r>
@@ -10003,7 +13295,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.63"/>
     <n v="0"/>
   </r>
@@ -10012,7 +13304,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.35"/>
     <n v="50.88"/>
   </r>
@@ -10021,7 +13313,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="104.69"/>
     <n v="57.78"/>
   </r>
@@ -10030,7 +13322,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="106.42"/>
     <n v="84.14"/>
   </r>
@@ -10039,7 +13331,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="50.29"/>
     <n v="0"/>
   </r>
@@ -10048,7 +13340,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.57"/>
     <n v="88.37"/>
   </r>
@@ -10057,7 +13349,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.13"/>
     <n v="0"/>
   </r>
@@ -10066,7 +13358,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.75"/>
     <n v="0"/>
   </r>
@@ -10075,7 +13367,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.07"/>
     <n v="0"/>
   </r>
@@ -10084,7 +13376,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="91.93"/>
     <n v="56.12"/>
   </r>
@@ -10093,7 +13385,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.25"/>
     <n v="0"/>
   </r>
@@ -10102,7 +13394,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="57.89"/>
     <n v="0"/>
   </r>
@@ -10111,7 +13403,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.55"/>
     <n v="0"/>
   </r>
@@ -10120,7 +13412,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.47"/>
     <n v="45.29"/>
   </r>
@@ -10129,7 +13421,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.06"/>
     <n v="81.319999999999993"/>
   </r>
@@ -10138,7 +13430,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="90.34"/>
     <n v="44.03"/>
   </r>
@@ -10147,7 +13439,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="122.77"/>
     <n v="59.89"/>
   </r>
@@ -10156,7 +13448,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="76.760000000000005"/>
     <n v="33.64"/>
   </r>
@@ -10165,7 +13457,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.47"/>
     <n v="0"/>
   </r>
@@ -10174,7 +13466,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.16"/>
     <n v="0"/>
   </r>
@@ -10183,7 +13475,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.31"/>
     <n v="0"/>
   </r>
@@ -10192,7 +13484,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="78.44"/>
     <n v="47.55"/>
   </r>
@@ -10201,7 +13493,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="128.11000000000001"/>
     <n v="61.5"/>
   </r>
@@ -10210,7 +13502,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="130.91999999999999"/>
     <n v="57.27"/>
   </r>
@@ -10219,7 +13511,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="29.08"/>
     <n v="0"/>
   </r>
@@ -10228,7 +13520,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="59.76"/>
     <n v="0"/>
   </r>
@@ -10237,7 +13529,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.799999999999997"/>
     <n v="0"/>
   </r>
@@ -10246,7 +13538,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="127.03"/>
     <n v="76.77"/>
   </r>
@@ -10255,7 +13547,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="100.88"/>
     <n v="51.45"/>
   </r>
@@ -10264,7 +13556,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="124.73"/>
     <n v="68.010000000000005"/>
   </r>
@@ -10273,7 +13565,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.26"/>
     <n v="52.21"/>
   </r>
@@ -10282,7 +13574,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.44"/>
     <n v="0"/>
   </r>
@@ -10291,7 +13583,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.97"/>
     <n v="67.78"/>
   </r>
@@ -10300,7 +13592,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="23.29"/>
     <n v="0"/>
   </r>
@@ -10309,7 +13601,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="85.48"/>
     <n v="48.32"/>
   </r>
@@ -10318,7 +13610,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.64"/>
     <n v="0"/>
   </r>
@@ -10327,7 +13619,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.27"/>
     <n v="0"/>
   </r>
@@ -10336,7 +13628,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="112.86"/>
     <n v="70.290000000000006"/>
   </r>
@@ -10345,7 +13637,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.61"/>
     <n v="0"/>
   </r>
@@ -10354,7 +13646,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="114.57"/>
     <n v="52.56"/>
   </r>
@@ -10363,7 +13655,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.229999999999997"/>
     <n v="0"/>
   </r>
@@ -10372,7 +13664,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.340000000000003"/>
     <n v="0"/>
   </r>
@@ -10381,7 +13673,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="96.23"/>
     <n v="40.18"/>
   </r>
@@ -10390,7 +13682,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="129.66999999999999"/>
     <n v="72.31"/>
   </r>
@@ -10399,7 +13691,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.159999999999997"/>
     <n v="0"/>
   </r>
@@ -10408,7 +13700,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.9"/>
     <n v="53.71"/>
   </r>
@@ -10417,7 +13709,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="59.35"/>
     <n v="0"/>
   </r>
@@ -10426,7 +13718,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="91.49"/>
     <n v="54.41"/>
   </r>
@@ -10435,7 +13727,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="50.46"/>
     <n v="0"/>
   </r>
@@ -10444,7 +13736,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="89.07"/>
     <n v="61.1"/>
   </r>
@@ -10453,7 +13745,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="88.1"/>
     <n v="64.02"/>
   </r>
@@ -10462,7 +13754,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.47"/>
     <n v="0"/>
   </r>
@@ -10471,7 +13763,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.979999999999997"/>
     <n v="0"/>
   </r>
@@ -10480,7 +13772,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.65"/>
     <n v="0"/>
   </r>
@@ -10489,7 +13781,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="112.39"/>
     <n v="76.13"/>
   </r>
@@ -10498,7 +13790,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.479999999999997"/>
     <n v="0"/>
   </r>
@@ -10507,7 +13799,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.05"/>
     <n v="0"/>
   </r>
@@ -10516,7 +13808,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.43"/>
     <n v="0"/>
   </r>
@@ -10525,7 +13817,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="73.25"/>
     <n v="56.2"/>
   </r>
@@ -10534,7 +13826,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="168.69"/>
     <n v="69.010000000000005"/>
   </r>
@@ -10543,7 +13835,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="136.11000000000001"/>
     <n v="79.3"/>
   </r>
@@ -10552,7 +13844,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.53"/>
     <n v="71.010000000000005"/>
   </r>
@@ -10561,7 +13853,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.01"/>
     <n v="0"/>
   </r>
@@ -10570,7 +13862,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="57.55"/>
     <n v="0"/>
   </r>
@@ -10579,7 +13871,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="55.23"/>
     <n v="0"/>
   </r>
@@ -10588,7 +13880,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="29.44"/>
     <n v="0"/>
   </r>
@@ -10597,7 +13889,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="120.23"/>
     <n v="77.42"/>
   </r>
@@ -10606,7 +13898,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.61"/>
     <n v="0"/>
   </r>
@@ -10615,7 +13907,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.46"/>
     <n v="0"/>
   </r>
@@ -10624,7 +13916,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="85.59"/>
     <n v="46.65"/>
   </r>
@@ -10633,7 +13925,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="61.89"/>
     <n v="41.07"/>
   </r>
@@ -10642,7 +13934,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="28.98"/>
     <n v="0"/>
   </r>
@@ -10651,7 +13943,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="115.57"/>
     <n v="58.14"/>
   </r>
@@ -10660,7 +13952,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="107.41"/>
     <n v="66.62"/>
   </r>
@@ -10669,7 +13961,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.61"/>
     <n v="0"/>
   </r>
@@ -10678,7 +13970,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.05"/>
     <n v="76.510000000000005"/>
   </r>
@@ -10687,7 +13979,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.729999999999997"/>
     <n v="0"/>
   </r>
@@ -10696,7 +13988,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.01"/>
     <n v="80.44"/>
   </r>
@@ -10705,7 +13997,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="86.59"/>
     <n v="63.05"/>
   </r>
@@ -10714,7 +14006,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.99"/>
     <n v="0"/>
   </r>
@@ -10723,7 +14015,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="17.98"/>
     <n v="0"/>
   </r>
@@ -10732,7 +14024,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.15"/>
     <n v="0"/>
   </r>
@@ -10741,7 +14033,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="146.77000000000001"/>
     <n v="76.66"/>
   </r>
@@ -10750,7 +14042,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="175.22"/>
     <n v="40.369999999999997"/>
   </r>
@@ -10759,7 +14051,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="133.53"/>
     <n v="74.56"/>
   </r>
@@ -10768,7 +14060,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.75"/>
     <n v="0"/>
   </r>
@@ -10777,7 +14069,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.42"/>
     <n v="0"/>
   </r>
@@ -10786,7 +14078,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="107.6"/>
     <n v="79.94"/>
   </r>
@@ -10795,7 +14087,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="55.78"/>
     <n v="61.97"/>
   </r>
@@ -10804,7 +14096,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="60.74"/>
     <n v="57.06"/>
   </r>
@@ -10813,7 +14105,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="99.92"/>
     <n v="53.88"/>
   </r>
@@ -10822,7 +14114,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="18.18"/>
     <n v="0"/>
   </r>
@@ -10831,7 +14123,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="131"/>
     <n v="69.989999999999995"/>
   </r>
@@ -10840,7 +14132,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="123.06"/>
     <n v="56.99"/>
   </r>
@@ -10849,7 +14141,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="57.54"/>
     <n v="0"/>
   </r>
@@ -10858,7 +14150,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="90.91"/>
     <n v="65.11"/>
   </r>
@@ -10867,7 +14159,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.19"/>
     <n v="0"/>
   </r>
@@ -10876,7 +14168,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.95"/>
     <n v="0"/>
   </r>
@@ -10885,7 +14177,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.34"/>
     <n v="0"/>
   </r>
@@ -10894,7 +14186,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="18.29"/>
     <n v="0"/>
   </r>
@@ -10903,7 +14195,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.18"/>
     <n v="0"/>
   </r>
@@ -10912,7 +14204,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="119.01"/>
     <n v="71.89"/>
   </r>
@@ -10921,7 +14213,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.89"/>
     <n v="50.96"/>
   </r>
@@ -10930,7 +14222,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="110.4"/>
     <n v="79.56"/>
   </r>
@@ -10939,7 +14231,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="114.25"/>
     <n v="84.68"/>
   </r>
@@ -10948,7 +14240,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="97.24"/>
     <n v="56.65"/>
   </r>
@@ -10957,7 +14249,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="87.21"/>
     <n v="64.8"/>
   </r>
@@ -10966,7 +14258,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54.61"/>
     <n v="0"/>
   </r>
@@ -10975,7 +14267,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.04"/>
     <n v="0"/>
   </r>
@@ -10984,7 +14276,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.159999999999997"/>
     <n v="0"/>
   </r>
@@ -10993,7 +14285,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="125.94"/>
     <n v="79.22"/>
   </r>
@@ -11002,7 +14294,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.06"/>
     <n v="0"/>
   </r>
@@ -11011,7 +14303,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="117.86"/>
     <n v="62.1"/>
   </r>
@@ -11020,7 +14312,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.9"/>
     <n v="0"/>
   </r>
@@ -11029,7 +14321,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="142.52000000000001"/>
     <n v="69.13"/>
   </r>
@@ -11038,7 +14330,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.06"/>
     <n v="0"/>
   </r>
@@ -11047,7 +14339,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.31"/>
     <n v="0"/>
   </r>
@@ -11056,7 +14348,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="83.49"/>
     <n v="49.59"/>
   </r>
@@ -11065,7 +14357,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="64.59"/>
     <n v="55.92"/>
   </r>
@@ -11074,7 +14366,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.15"/>
     <n v="0"/>
   </r>
@@ -11083,7 +14375,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="33.590000000000003"/>
     <n v="0"/>
   </r>
@@ -11092,7 +14384,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.98"/>
     <n v="0"/>
   </r>
@@ -11101,7 +14393,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="101.85"/>
     <n v="61.67"/>
   </r>
@@ -11110,7 +14402,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.69"/>
     <n v="0"/>
   </r>
@@ -11119,7 +14411,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37"/>
     <n v="0"/>
   </r>
@@ -11128,7 +14420,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="34.630000000000003"/>
     <n v="0"/>
   </r>
@@ -11137,7 +14429,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="129.97"/>
     <n v="72.23"/>
   </r>
@@ -11146,7 +14438,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="160.69999999999999"/>
     <n v="79.209999999999994"/>
   </r>
@@ -11155,7 +14447,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.13"/>
     <n v="0"/>
   </r>
@@ -11164,7 +14456,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="90.09"/>
     <n v="47.75"/>
   </r>
@@ -11173,7 +14465,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.880000000000003"/>
     <n v="0"/>
   </r>
@@ -11182,7 +14474,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.02"/>
     <n v="0"/>
   </r>
@@ -11191,7 +14483,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="52.25"/>
     <n v="0"/>
   </r>
@@ -11200,7 +14492,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.1"/>
     <n v="0"/>
   </r>
@@ -11209,7 +14501,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="103.7"/>
     <n v="76.349999999999994"/>
   </r>
@@ -11218,7 +14510,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.01"/>
     <n v="0"/>
   </r>
@@ -11227,7 +14519,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="88.87"/>
     <n v="50.33"/>
   </r>
@@ -11236,7 +14528,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.06"/>
     <n v="0"/>
   </r>
@@ -11245,7 +14537,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.71"/>
     <n v="0"/>
   </r>
@@ -11254,7 +14546,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.66"/>
     <n v="0"/>
   </r>
@@ -11263,7 +14555,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="49.91"/>
     <n v="0"/>
   </r>
@@ -11272,7 +14564,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="79.14"/>
     <n v="67.37"/>
   </r>
@@ -11281,7 +14573,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.71"/>
     <n v="0"/>
   </r>
@@ -11290,7 +14582,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="113.03"/>
     <n v="69.510000000000005"/>
   </r>
@@ -11299,7 +14591,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="113.27"/>
     <n v="82.6"/>
   </r>
@@ -11308,7 +14600,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.65"/>
     <n v="0"/>
   </r>
@@ -11317,7 +14609,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="120.64"/>
     <n v="77.98"/>
   </r>
@@ -11326,7 +14618,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="76.680000000000007"/>
     <n v="49.82"/>
   </r>
@@ -11335,7 +14627,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="41.7"/>
     <n v="0"/>
   </r>
@@ -11344,7 +14636,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="123.74"/>
     <n v="73.27"/>
   </r>
@@ -11353,7 +14645,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="62.57"/>
     <n v="92.19"/>
   </r>
@@ -11362,7 +14654,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.57"/>
     <n v="0"/>
   </r>
@@ -11371,7 +14663,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.64"/>
     <n v="0"/>
   </r>
@@ -11380,7 +14672,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="101.56"/>
     <n v="75.680000000000007"/>
   </r>
@@ -11389,7 +14681,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="54.26"/>
     <n v="0"/>
   </r>
@@ -11398,7 +14690,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.8"/>
     <n v="0"/>
   </r>
@@ -11407,7 +14699,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="129.94999999999999"/>
     <n v="69.540000000000006"/>
   </r>
@@ -11416,7 +14708,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="86.2"/>
     <n v="57.07"/>
   </r>
@@ -11425,7 +14717,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="65.38"/>
     <n v="47.63"/>
   </r>
@@ -11434,7 +14726,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="48.71"/>
     <n v="0"/>
   </r>
@@ -11443,7 +14735,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="116.39"/>
     <n v="68.98"/>
   </r>
@@ -11452,7 +14744,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="40.81"/>
     <n v="0"/>
   </r>
@@ -11461,7 +14753,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="43.51"/>
     <n v="0"/>
   </r>
@@ -11470,7 +14762,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.53"/>
     <n v="0"/>
   </r>
@@ -11479,7 +14771,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="120.59"/>
     <n v="66.22"/>
   </r>
@@ -11488,7 +14780,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.71"/>
     <n v="67.650000000000006"/>
   </r>
@@ -11497,7 +14789,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="67.31"/>
     <n v="32.15"/>
   </r>
@@ -11506,7 +14798,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="58.06"/>
     <n v="51.34"/>
   </r>
@@ -11515,7 +14807,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="46.54"/>
     <n v="0"/>
   </r>
@@ -11524,7 +14816,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.38"/>
     <n v="0"/>
   </r>
@@ -11533,7 +14825,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="144.29"/>
     <n v="42.63"/>
   </r>
@@ -11542,7 +14834,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.98"/>
     <n v="0"/>
   </r>
@@ -11551,7 +14843,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="137.4"/>
     <n v="85.03"/>
   </r>
@@ -11560,7 +14852,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="95.69"/>
     <n v="55.98"/>
   </r>
@@ -11569,7 +14861,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.65"/>
     <n v="0"/>
   </r>
@@ -11578,7 +14870,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="56.98"/>
     <n v="0"/>
   </r>
@@ -11587,7 +14879,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="163.9"/>
     <n v="38.1"/>
   </r>
@@ -11596,7 +14888,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="35.69"/>
     <n v="0"/>
   </r>
@@ -11605,7 +14897,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="29.79"/>
     <n v="0"/>
   </r>
@@ -11614,7 +14906,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="85.99"/>
     <n v="76.48"/>
   </r>
@@ -11623,7 +14915,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.89"/>
     <n v="0"/>
   </r>
@@ -11632,7 +14924,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="58.09"/>
     <n v="0"/>
   </r>
@@ -11641,7 +14933,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="77.87"/>
     <n v="62.78"/>
   </r>
@@ -11650,7 +14942,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="106.7"/>
     <n v="74.91"/>
   </r>
@@ -11659,7 +14951,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="79.64"/>
     <n v="39.630000000000003"/>
   </r>
@@ -11668,7 +14960,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="69.17"/>
     <n v="64.64"/>
   </r>
@@ -11677,7 +14969,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="84.75"/>
     <n v="45.35"/>
   </r>
@@ -11686,7 +14978,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.68"/>
     <n v="0"/>
   </r>
@@ -11695,7 +14987,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="28.59"/>
     <n v="0"/>
   </r>
@@ -11704,7 +14996,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="74.05"/>
     <n v="41.75"/>
   </r>
@@ -11713,7 +15005,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.200000000000003"/>
     <n v="0"/>
   </r>
@@ -11722,7 +15014,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="97.69"/>
     <n v="62.22"/>
   </r>
@@ -11731,7 +15023,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="5.55"/>
     <n v="0"/>
   </r>
@@ -11740,7 +15032,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.03"/>
     <n v="0"/>
   </r>
@@ -11749,7 +15041,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.16"/>
     <n v="0"/>
   </r>
@@ -11758,7 +15050,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.78"/>
     <n v="0"/>
   </r>
@@ -11767,7 +15059,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.65"/>
     <n v="0"/>
   </r>
@@ -11776,7 +15068,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="24.87"/>
     <n v="0"/>
   </r>
@@ -11785,7 +15077,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="44.57"/>
     <n v="0"/>
   </r>
@@ -11794,7 +15086,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="32.090000000000003"/>
     <n v="0"/>
   </r>
@@ -11803,7 +15095,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.479999999999997"/>
     <n v="0"/>
   </r>
@@ -11812,7 +15104,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="133.97999999999999"/>
     <n v="57.46"/>
   </r>
@@ -11821,7 +15113,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="105.19"/>
     <n v="64.67"/>
   </r>
@@ -11830,7 +15122,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="122.56"/>
     <n v="68.31"/>
   </r>
@@ -11839,7 +15131,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.57"/>
     <n v="0"/>
   </r>
@@ -11848,7 +15140,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="112.37"/>
     <n v="78.55"/>
   </r>
@@ -11857,7 +15149,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="45.49"/>
     <n v="0"/>
   </r>
@@ -11866,7 +15158,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="47.41"/>
     <n v="0"/>
   </r>
@@ -11875,7 +15167,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.55"/>
     <n v="0"/>
   </r>
@@ -11884,7 +15176,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="91.51"/>
     <n v="59.63"/>
   </r>
@@ -11893,7 +15185,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="37.880000000000003"/>
     <n v="0"/>
   </r>
@@ -11902,7 +15194,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.26"/>
     <n v="0"/>
   </r>
@@ -11911,7 +15203,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="42.48"/>
     <n v="0"/>
   </r>
@@ -11920,7 +15212,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="86.88"/>
     <n v="46.18"/>
   </r>
@@ -11929,7 +15221,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.59"/>
     <n v="69.27"/>
   </r>
@@ -11938,7 +15230,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="102.81"/>
     <n v="39.6"/>
   </r>
@@ -11947,7 +15239,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.51"/>
     <n v="57.62"/>
   </r>
@@ -11956,7 +15248,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="78.19"/>
     <n v="34.64"/>
   </r>
@@ -11965,7 +15257,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.79"/>
     <n v="0"/>
   </r>
@@ -11974,7 +15266,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.93"/>
     <n v="0"/>
   </r>
@@ -11983,7 +15275,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.020000000000003"/>
     <n v="0"/>
   </r>
@@ -11992,7 +15284,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="77.5"/>
     <n v="50.39"/>
   </r>
@@ -12001,7 +15293,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="118.08"/>
     <n v="74"/>
   </r>
@@ -12010,7 +15302,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="111.56"/>
     <n v="49.84"/>
   </r>
@@ -12019,7 +15311,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="31.32"/>
     <n v="0"/>
   </r>
@@ -12028,7 +15320,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.96"/>
     <n v="0"/>
   </r>
@@ -12037,7 +15329,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.94"/>
     <n v="0"/>
   </r>
@@ -12046,7 +15338,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="123.86"/>
     <n v="81.510000000000005"/>
   </r>
@@ -12055,7 +15347,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="92.7"/>
     <n v="53.51"/>
   </r>
@@ -12064,7 +15356,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="133.38"/>
     <n v="66.98"/>
   </r>
@@ -12073,7 +15365,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="125.29"/>
     <n v="62.78"/>
   </r>
@@ -12082,7 +15374,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="53.98"/>
     <n v="0"/>
   </r>
@@ -12091,7 +15383,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="132.1"/>
     <n v="52.84"/>
   </r>
@@ -12100,7 +15392,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="24.09"/>
     <n v="0"/>
   </r>
@@ -12109,7 +15401,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="78.47"/>
     <n v="51.61"/>
   </r>
@@ -12118,7 +15410,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="38.74"/>
     <n v="0"/>
   </r>
@@ -12127,7 +15419,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="51.35"/>
     <n v="0"/>
   </r>
@@ -12136,7 +15428,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="102.4"/>
     <n v="83.26"/>
   </r>
@@ -12145,7 +15437,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="39.619999999999997"/>
     <n v="0"/>
   </r>
@@ -12154,7 +15446,7 @@
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="105.28"/>
     <n v="49.42"/>
   </r>
@@ -12163,7 +15455,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="0"/>
+    <x v="1"/>
     <n v="36.299999999999997"/>
     <n v="0"/>
   </r>
@@ -12171,7 +15463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1F7E7A-7542-4A98-87CF-0BEA8B0BAC97}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Campaign">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1F7E7A-7542-4A98-87CF-0BEA8B0BAC97}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="61" rowHeaderCaption="Campaign">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -12295,7 +15587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{624B1E25-2610-4A59-BD61-C8757512AE04}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Channel">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{624B1E25-2610-4A59-BD61-C8757512AE04}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Channel">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -12348,12 +15640,48 @@
   <dataFields count="1">
     <dataField name="Sum of Sales ($)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -12372,7 +15700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D82D2C-09A2-46DC-A7E5-8E5A5B84F27C}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Campaign Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D82D2C-09A2-46DC-A7E5-8E5A5B84F27C}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Campaign Type">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -12415,12 +15743,36 @@
   <dataFields count="1">
     <dataField name="Sum of Sales ($)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="8" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -12439,7 +15791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0321AFFA-6B0C-4CFC-BF51-8E9003E5E4EA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0321AFFA-6B0C-4CFC-BF51-8E9003E5E4EA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -12560,7 +15912,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C843F76B-5425-4CA0-927C-5EF2612B7AC3}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C843F76B-5425-4CA0-927C-5EF2612B7AC3}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -12624,7 +15976,7 @@
   <dataFields count="1">
     <dataField name="Sum of Sales ($)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -12644,6 +15996,223 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B3816D9-135D-4726-8981-6423DCB7BAA9}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Time on Site (seconds)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ACB73EA-6391-489D-82D1-7A72BBE93D50}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="49">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Time on Site (seconds)" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Count of Converted (1=yes, 0=no)" fld="4" subtotal="count" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="28" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="28" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -12709,7 +16278,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Violet">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12717,34 +16286,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="373545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="DCD8DC"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="AD84C6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="8784C7"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="5D739A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="6997AF"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="84ACB6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="6F8183"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="69A020"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="8C8C8C"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -13026,7 +16595,7 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:G501"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24571,8 +28140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C582100-09C4-4C3C-A93B-82F85FF89FBD}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24619,16 +28188,16 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2952.37</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>2162.9000000000005</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>754.29</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>5869.56</v>
       </c>
     </row>
@@ -24636,16 +28205,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>4956.9399999999996</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>1710.5100000000004</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>2122.5899999999997</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>8790.0399999999991</v>
       </c>
     </row>
@@ -24653,16 +28222,16 @@
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>7909.3099999999995</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>3873.4100000000008</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>2876.8799999999997</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>14659.599999999999</v>
       </c>
     </row>
@@ -24683,8 +28252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F4AC5E-DD39-4F9A-BD56-8C561E917899}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24715,7 +28284,7 @@
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>7909.3100000000049</v>
       </c>
     </row>
@@ -24723,7 +28292,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>3873.4100000000003</v>
       </c>
     </row>
@@ -24731,7 +28300,7 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>2876.8800000000006</v>
       </c>
     </row>
@@ -24739,7 +28308,7 @@
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>14659.600000000006</v>
       </c>
     </row>
@@ -24757,7 +28326,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24786,7 +28355,7 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>5869.5600000000031</v>
       </c>
     </row>
@@ -24794,7 +28363,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>8790.0400000000045</v>
       </c>
     </row>
@@ -24802,7 +28371,7 @@
       <c r="A6" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>14659.600000000008</v>
       </c>
     </row>
@@ -24819,8 +28388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396F0BB9-7B0B-4982-81CE-5B17CE9AB885}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24862,13 +28431,13 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2142.5700000000002</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>6672.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>8815.17</v>
       </c>
     </row>
@@ -24876,13 +28445,13 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>3726.9900000000007</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>2117.44</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>5844.43</v>
       </c>
     </row>
@@ -24890,13 +28459,13 @@
       <c r="A7" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>5869.5600000000013</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>8790.0400000000009</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>14659.6</v>
       </c>
     </row>
@@ -24910,15 +28479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5480305F-0B7B-4EB1-AF62-723C796E65EF}">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24948,13 +28517,13 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2124.4700000000003</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>1382.3799999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>3506.8500000000004</v>
       </c>
     </row>
@@ -24962,13 +28531,13 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>969.46</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>416.14</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>1385.6</v>
       </c>
     </row>
@@ -24976,13 +28545,13 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>633.06000000000006</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>318.92000000000007</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>951.98000000000013</v>
       </c>
     </row>
@@ -24990,13 +28559,13 @@
       <c r="A8" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>3726.9900000000002</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>2117.44</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>5844.4300000000012</v>
       </c>
     </row>
@@ -25011,4 +28580,288 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA9BA19-A43C-4B47-A173-C04ACA369354}">
+  <dimension ref="A3:E15"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10084.260000000002</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5545.1699999999992</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5312.7699999999995</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20942.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7265.1599999999971</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3915.8399999999992</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4099.6300000000019</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15280.629999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="7">
+        <v>17349.419999999998</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9461.0099999999984</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9412.4000000000015</v>
+      </c>
+      <c r="E7" s="7">
+        <v>36222.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>10084.260000000002</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5545.1699999999992</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5312.7699999999995</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20942.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>7265.1599999999971</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3915.8399999999992</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4099.6300000000019</v>
+      </c>
+      <c r="E10" s="7">
+        <v>15280.629999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>17349.419999999998</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9461.0099999999984</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9412.4000000000015</v>
+      </c>
+      <c r="E11" s="9">
+        <v>36222.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <f>B9/$E$9</f>
+        <v>0.48152820620565184</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C9/$E$9</f>
+        <v>0.2647845021057959</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D9/$E$9</f>
+        <v>0.25368729168855225</v>
+      </c>
+      <c r="E14" s="8">
+        <f>E9/$E$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B10/$E$10</f>
+        <v>0.47544898345159842</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C10/$E$10</f>
+        <v>0.25626168554568757</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D10/$E$10</f>
+        <v>0.26828933100271407</v>
+      </c>
+      <c r="E15" s="8">
+        <f>E10/$E$10</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A24DBB-C550-4C93-A0A7-4E50ABEDF59B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3762.0800000000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3733.6600000000003</v>
+      </c>
+      <c r="C5" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3576.4100000000008</v>
+      </c>
+      <c r="C6" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" s="7">
+        <v>11072.149999999994</v>
+      </c>
+      <c r="C7" s="7">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/analysis/campaigns-analysis.xlsx
+++ b/analysis/campaigns-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3e6a90a7d0137c2/Desktop/ds/bcgx-campaigns-performance-analysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="13_ncr:1_{A548AC19-C501-46E1-915C-B6A7CF23C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE6849C-6F6E-4DDE-A9CF-A30FC31C0888}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="13_ncr:1_{A548AC19-C501-46E1-915C-B6A7CF23C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD38588-1500-47D5-B504-03E79BFF57C2}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="5" activeTab="5" xr2:uid="{0753742A-CAC4-4A7D-BFFA-893AA9730FA6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="3" activeTab="3" xr2:uid="{0753742A-CAC4-4A7D-BFFA-893AA9730FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -4932,13 +4932,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2124.4700000000003</c:v>
+                  <c:v>827.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>969.46</c:v>
+                  <c:v>1193.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.06000000000006</c:v>
+                  <c:v>121.22999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,13 +5055,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1382.3799999999999</c:v>
+                  <c:v>3574.5600000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>416.14</c:v>
+                  <c:v>1294.3700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>318.92000000000007</c:v>
+                  <c:v>1803.6700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15587,7 +15587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{624B1E25-2610-4A59-BD61-C8757512AE04}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Channel">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{624B1E25-2610-4A59-BD61-C8757512AE04}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Channel">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -15700,7 +15700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D82D2C-09A2-46DC-A7E5-8E5A5B84F27C}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Campaign Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43D82D2C-09A2-46DC-A7E5-8E5A5B84F27C}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22" rowHeaderCaption="Campaign Type">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -15791,7 +15791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0321AFFA-6B0C-4CFC-BF51-8E9003E5E4EA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0321AFFA-6B0C-4CFC-BF51-8E9003E5E4EA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -15912,7 +15912,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C843F76B-5425-4CA0-927C-5EF2612B7AC3}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C843F76B-5425-4CA0-927C-5EF2612B7AC3}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -15933,8 +15933,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15976,7 +15976,7 @@
   <dataFields count="1">
     <dataField name="Sum of Sales ($)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -15990,54 +15990,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16134,7 +16086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ACB73EA-6391-489D-82D1-7A72BBE93D50}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="49">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0ACB73EA-6391-489D-82D1-7A72BBE93D50}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="52">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -16255,8 +16207,8 @@
   <data>
     <tabular pivotCacheId="1392361296">
       <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -28140,8 +28092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C582100-09C4-4C3C-A93B-82F85FF89FBD}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28252,8 +28204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F4AC5E-DD39-4F9A-BD56-8C561E917899}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28325,8 +28277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53715DBD-C3FC-42FF-AD67-0B2F7943C23B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28388,8 +28340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396F0BB9-7B0B-4982-81CE-5B17CE9AB885}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="D1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28479,7 +28431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5480305F-0B7B-4EB1-AF62-723C796E65EF}">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -28518,13 +28470,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="7">
-        <v>2124.4700000000003</v>
+        <v>827.9</v>
       </c>
       <c r="C5" s="7">
-        <v>1382.3799999999999</v>
+        <v>3574.5600000000004</v>
       </c>
       <c r="D5" s="7">
-        <v>3506.8500000000004</v>
+        <v>4402.46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -28532,13 +28484,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>969.46</v>
+        <v>1193.44</v>
       </c>
       <c r="C6" s="7">
-        <v>416.14</v>
+        <v>1294.3700000000003</v>
       </c>
       <c r="D6" s="7">
-        <v>1385.6</v>
+        <v>2487.8100000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -28546,13 +28498,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="7">
-        <v>633.06000000000006</v>
+        <v>121.22999999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>318.92000000000007</v>
+        <v>1803.6700000000003</v>
       </c>
       <c r="D7" s="7">
-        <v>951.98000000000013</v>
+        <v>1924.9000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -28560,13 +28512,13 @@
         <v>515</v>
       </c>
       <c r="B8" s="7">
-        <v>3726.9900000000002</v>
+        <v>2142.5700000000002</v>
       </c>
       <c r="C8" s="7">
-        <v>2117.44</v>
+        <v>6672.6</v>
       </c>
       <c r="D8" s="7">
-        <v>5844.4300000000012</v>
+        <v>8815.17</v>
       </c>
     </row>
   </sheetData>
@@ -28783,8 +28735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A24DBB-C550-4C93-A0A7-4E50ABEDF59B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
